--- a/uploads/p2 stud upuonline dt.xlsx
+++ b/uploads/p2 stud upuonline dt.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="28">
   <si>
-    <t>nama</t>
+    <t>Kod  Program</t>
   </si>
   <si>
-    <t>Kod  Program</t>
+    <t>statusterimatawaran</t>
   </si>
   <si>
     <t>muet</t>
@@ -32,1201 +32,70 @@
     <t>purata pngk</t>
   </si>
   <si>
-    <t>NURAINIS HUSNA BINTI YUSAINI</t>
-  </si>
-  <si>
     <t>ZM00</t>
   </si>
   <si>
-    <t>DAHLIA HAZWANI BINTI HAZALIMI</t>
-  </si>
-  <si>
-    <t>NUR HIEFA SYAFIEQAH BINTI MOHD ZUKRI</t>
-  </si>
-  <si>
-    <t>NUR AYDA BINTI MOHD ASRI</t>
-  </si>
-  <si>
-    <t>NURUL SAMIRAH HANNANI BINTI MOHAMAD YUSRI</t>
-  </si>
-  <si>
-    <t>NAGESHWARAN A/L PALANISAMY</t>
-  </si>
-  <si>
-    <t>KHAIRUL HAFIZAD BIN KHAIRUNNIZAM</t>
-  </si>
-  <si>
-    <t>JOSHITAA A/P MUTHUSAMY</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IRFAN NAUFAL BIN MOHD RANIZA</t>
-  </si>
-  <si>
-    <t>CHAU SHI WYN</t>
-  </si>
-  <si>
-    <t>HENG SHUANG KEE</t>
-  </si>
-  <si>
-    <t>NORAIN AMIRA BINTI HUSNI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ZAFRAN SHAH BIN NORHISAMSHAH</t>
-  </si>
-  <si>
-    <t>PUTRI NURNABILAH SHAH BINTI ABDUL MUTALIB</t>
-  </si>
-  <si>
-    <t>ALI HANAFIAH BIN MOHD RAFEE</t>
-  </si>
-  <si>
-    <t>FITRIYAH AMANINA BINTI ABD HALIM</t>
-  </si>
-  <si>
-    <t>LIM KOK TONG</t>
-  </si>
-  <si>
-    <t>LIM KOK LEONG</t>
-  </si>
-  <si>
-    <t>NURUL SHAFIAH BINTI MOHD ZIN</t>
-  </si>
-  <si>
-    <t>NUR SYAMIERA SABRINA BINTI MOHAMAD ZAMRI</t>
-  </si>
-  <si>
-    <t>EVA LEE EE ENN</t>
-  </si>
-  <si>
-    <t>NUR FAIZA BINTI IZAM</t>
-  </si>
-  <si>
-    <t>BATRISYIA AFRINA BINTI MISRAN</t>
-  </si>
-  <si>
-    <t>UDAIMATUNNUR WAJIHAH BINTI ABDUL RAZAK</t>
-  </si>
-  <si>
-    <t>NUR SYASYAFAWATI BINTI MOHD SAYUTI</t>
-  </si>
-  <si>
-    <t>WAN AMIRA NAJWA BINTI WAN AZUAN</t>
-  </si>
-  <si>
-    <t>NURDYA AMALIN BINTI MOHD RODZI</t>
-  </si>
-  <si>
-    <t>KHAIRUL AQIL BIN TUNIMAN</t>
+    <t>Terima Tawaran</t>
   </si>
   <si>
     <t>ZK02</t>
   </si>
   <si>
-    <t>PUTRI AYESHA NABILA BINTI KHAIRUL HISHAM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SALMAN BIN MOHD SUHARUDDIN</t>
-  </si>
-  <si>
-    <t>NURNAJLA BINTI MUADZAM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AQIL BIN SHAMSUL AMRI</t>
-  </si>
-  <si>
-    <t>NUR ADRIANA NATASHA BINTI SHUHAIMI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SYAKIR FIKRI BIN ROSMAN</t>
-  </si>
-  <si>
-    <t>SANGEETHA SHALINI A/P ANNADURAI</t>
-  </si>
-  <si>
-    <t>SHAFIQAH NADIA BINTI SAPIAN</t>
-  </si>
-  <si>
-    <t>NUR AZIMAH BINTI AZWARUL NIZAM</t>
-  </si>
-  <si>
-    <t>'IZZATI MAISARAH BINTI MUHAMAD FIRDAUS</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RAFIQIE BIN ZAINUDDIN</t>
-  </si>
-  <si>
-    <t>NUR IMTINAN AISYAH BINTI MOHD RIDZUWAN</t>
-  </si>
-  <si>
-    <t>SITI NOR AISYAH BINTI ABDULLAH</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AMIRUL ASYRAF BIN ABDULLAH</t>
-  </si>
-  <si>
-    <t>NUR KARMILA ALISSA BINTI SABILI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ALIF DANIEL BIN MANSOR</t>
+    <t>Tolak Tawaran</t>
   </si>
   <si>
     <t>ZK09</t>
   </si>
   <si>
-    <t>SITI SALMAH BINTI MOHD SABRI</t>
-  </si>
-  <si>
-    <t>NABIL HAKIM BIN NORDIN</t>
-  </si>
-  <si>
-    <t>MOHAMAD HAFIZ AMINUDDIN BIN MOHD ROZI</t>
-  </si>
-  <si>
-    <t>WAN AHMAD AFIF BIN WAN MUSTAPHA</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ALIF ZAKWAN BIN MUHAMAD</t>
-  </si>
-  <si>
-    <t>NUR SALSABILA BINTI FAISAL SHUKRI</t>
-  </si>
-  <si>
-    <t>AIN NUR SOFEYYAH BINTI ZAMRI</t>
-  </si>
-  <si>
-    <t>MAWADDAH BINTI LAHAM SALIHIN</t>
-  </si>
-  <si>
-    <t>ANIEQ IMRAN BIN AZNOR</t>
-  </si>
-  <si>
-    <t>QURRATU AIN NADIA BINTI AZMAN</t>
-  </si>
-  <si>
-    <t>AIMAN BIN MAZLI SHAM</t>
-  </si>
-  <si>
-    <t>NURAESHAH SHAHIRA PUTRI BINTI MOHD KHAIRIL</t>
-  </si>
-  <si>
-    <t>NUR FATIHAH BINTI JAMIAN</t>
-  </si>
-  <si>
-    <t>AHMAD AFIF AQWA BIN AZMAN</t>
-  </si>
-  <si>
-    <t>WAN MUHAMMAD SHAMIL HAIQAL BIN WAN SHUKRI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ADAM HAQIM BIN MOHAMAD ESHAM</t>
-  </si>
-  <si>
-    <t>ABDUL RAHMAN BIN MAMAT</t>
-  </si>
-  <si>
-    <t>MUHAMAD NUR NASRULLAH BIN MOHAMAD ALI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ARIF FIRAS BIN MOHD KAMAL</t>
-  </si>
-  <si>
-    <t>AMMAR FARHAN BIN AZRUL NIZAM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AZHAD NAQIB BIN ZURAIME</t>
-  </si>
-  <si>
-    <t>DANIEL ADAM HARITH BIN SAMSUL</t>
-  </si>
-  <si>
-    <t>SYARMIN NUR HANIM BINTI SYAMSURI</t>
-  </si>
-  <si>
-    <t>NISHANT A/L SATHIVELO</t>
-  </si>
-  <si>
-    <t>LIM QI XIANG</t>
-  </si>
-  <si>
     <t>ZK23</t>
-  </si>
-  <si>
-    <t>TEH XIN</t>
-  </si>
-  <si>
-    <t>MOHAMMAD HAQIMIE BIN MARYUZI</t>
-  </si>
-  <si>
-    <t>HO JIA SHENG</t>
-  </si>
-  <si>
-    <t>AMIR SHAKIB ARSLAN BIN ZULKIFLI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FIRDAUS BIN AHMAD ROZI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NAIM BIN KHAIRUL HISHAM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RAESUL FIRDAUS BIN SAHRIL SHAH</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FIRDAUS BIN ADZMI</t>
-  </si>
-  <si>
-    <t>NUR NISRIN BINTI RASHIDI</t>
-  </si>
-  <si>
-    <t>NUR AMALINA BINTI BONGSU</t>
-  </si>
-  <si>
-    <t>FARHAN BIN MAT ZIN</t>
-  </si>
-  <si>
-    <t>MOHD HAKIM BIN MOHD NOORAFIZAM</t>
   </si>
   <si>
     <t>ZC01</t>
   </si>
   <si>
-    <t>UNESSWARAN A/L THINAKARAN</t>
-  </si>
-  <si>
-    <t>NIK ABDUL AQMAL BIN ZUNAIDI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SYABIL ASNA BIN MOHMAD RASOOL</t>
-  </si>
-  <si>
-    <t>NUR AMIRAH MIRZA BINTI IBRAHIM</t>
-  </si>
-  <si>
-    <t>KWEE ZHENG YU</t>
-  </si>
-  <si>
-    <t>NUR HIDAYATI BINTI KAMARUDIN</t>
-  </si>
-  <si>
-    <t>NUR UMIRA DINI BINTI HISHAMMUDIN</t>
-  </si>
-  <si>
-    <t>NADIA BINTI SAI-FULHAK</t>
-  </si>
-  <si>
-    <t>NUR SHAZRUL ZAQWAN BIN SALLEH</t>
-  </si>
-  <si>
-    <t>JAYASHENII A/P SOORIA NARAYANAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD TAUFIQ BIN ROSDAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AZIZZUL QHUSAINIE BIN MOHAMAD</t>
-  </si>
-  <si>
-    <t>NUR FARAH HANIM BINTI NOR AZMI</t>
-  </si>
-  <si>
-    <t>AMMAR FAHIEM BIN SOHAIMI</t>
-  </si>
-  <si>
-    <t>NUR AINA ADDELINA BINTI AHMAD</t>
-  </si>
-  <si>
     <t>ZC21</t>
-  </si>
-  <si>
-    <t>LIM XIN YI</t>
-  </si>
-  <si>
-    <t>NURUL HIDAYAH BINTI FARAN</t>
-  </si>
-  <si>
-    <t>NUR HUMAIRAH BINTI HISHAMUDDIN</t>
-  </si>
-  <si>
-    <t>SITI AISHAH BINTI SHAABAN</t>
   </si>
   <si>
     <t>ZC27</t>
   </si>
   <si>
-    <t>NURIN ATHIRAH BINTI HIZAM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NAZRI BIN NAZURI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AIDIL BIN MOHD ALIAS</t>
-  </si>
-  <si>
-    <t>HARINTHAN A/L GANASAGAREN</t>
-  </si>
-  <si>
-    <t>TANIA DANISHA PUTERI BINTI MOHD SHAFIE</t>
-  </si>
-  <si>
-    <t>AQILAH BATRISYIA BINTI MOHD ZAKI</t>
-  </si>
-  <si>
-    <t>DHIA QISTINA WAHFI BINTI MOHD NIZAM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NUR EIZWAN BIN BAHARUDIN</t>
-  </si>
-  <si>
-    <t>SHARVIN RAO A/L SOORITHAMUDU</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AZIM BIN ABU BAKAR</t>
-  </si>
-  <si>
-    <t>KUGGEN A/L GUNASILAN</t>
-  </si>
-  <si>
-    <t>SHARVESHYUGAN A/L RAMACHANDRAN</t>
-  </si>
-  <si>
-    <t>NUR AZZARENA BINTI MOHAMMAD SUPIAN FABIAN</t>
-  </si>
-  <si>
-    <t>NURUL AISYAH BINTI MUSTAFA BAKRI</t>
-  </si>
-  <si>
-    <t>RASYADI JEFRY NORDIN</t>
-  </si>
-  <si>
-    <t>NUR AMIERAH AMALIN BINTI NOR SHAM</t>
-  </si>
-  <si>
     <t>ZC33</t>
-  </si>
-  <si>
-    <t>YUSRA HAZIQAH BINTI MD YUNUS</t>
-  </si>
-  <si>
-    <t>NUR ADILAH BINTI HASSIM</t>
-  </si>
-  <si>
-    <t>NUR SAFWATUL IZYAN BINTI KHAIRUL ANUAR</t>
-  </si>
-  <si>
-    <t>PUTRI NURUL IMAN BINTI MOHD SAMSOL</t>
-  </si>
-  <si>
-    <t>NUR AINA NABILA BINTI ANUAR</t>
-  </si>
-  <si>
-    <t>FATIMA AZ-ZAHRA BINTI MOHAMAD KAMARULZAMAN</t>
-  </si>
-  <si>
-    <t>NUR ALEEYA NATASHA BINTI NASIR RUDIN</t>
   </si>
   <si>
     <t>ZG37</t>
   </si>
   <si>
-    <t>ADI IMRAN BIN ROZMAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SYAHMIE FIKRI BIN MENIN</t>
-  </si>
-  <si>
-    <t>NUR ADLINA BATRISYIA BINTI CHE SABIDI</t>
-  </si>
-  <si>
-    <t>KESAVAN A/L GANISH</t>
-  </si>
-  <si>
-    <t>FATINAH UZMA BINTI MOHD RIDZUAN</t>
-  </si>
-  <si>
-    <t>DAROSHA A/P KALAISELVAN</t>
-  </si>
-  <si>
-    <t>SANGARAN A/L PARAMESWARAN</t>
-  </si>
-  <si>
-    <t>THEVAROOBAN A/L THANASINGAM</t>
-  </si>
-  <si>
-    <t>NURUL AIN BINTI MASDI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ANAS NABIL BIN MOHD SEDI</t>
-  </si>
-  <si>
-    <t>AMMAR ZHARFAN BIN AZMAN</t>
-  </si>
-  <si>
-    <t>SHAHIRA ELYNA BINTI ABDUL MUDTALLIB</t>
-  </si>
-  <si>
-    <t>RIANA BALQIS BINTI MOHD SUARDI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ADIB UBAIDULLAH BIN AZMAN</t>
-  </si>
-  <si>
-    <t>AMIRA SYAHIRAH BINTI AHMAD SHUKRI</t>
-  </si>
-  <si>
-    <t>NOR AFIFI AMIRA BINTI AMRAM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SYAHMI AIMAN BIN MOHD RAFI</t>
-  </si>
-  <si>
-    <t>NURIN A'DANI BINTI ABDUL GHANI</t>
-  </si>
-  <si>
-    <t>NUR AINAA SOFIYYAH BINTI KASIM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FAIZ IRFAN ESKANDAR MUHAMMAD AZIZUL</t>
-  </si>
-  <si>
-    <t>VESHAALAN A/L KUMAR</t>
-  </si>
-  <si>
     <t>ZG57</t>
-  </si>
-  <si>
-    <t>SHAMAN A/L CHANDRA MOHAN</t>
-  </si>
-  <si>
-    <t>HUSNA HADIRAH BINTI MOHAMAD HELMY</t>
-  </si>
-  <si>
-    <t>CHE NUR IZZATI BINTI CHE MOHD ZULKUFLY</t>
-  </si>
-  <si>
-    <t>JAIE KEESHEND A/L RAJASEGARAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD KHAIRI BIN MOHD SABRI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NAZAUDI BIN AZIZ</t>
-  </si>
-  <si>
-    <t>SITI SALIHA BINTI AZMALI</t>
-  </si>
-  <si>
-    <t>NUR IRDINA IZZATI BINTI YUSNI</t>
-  </si>
-  <si>
-    <t>NUR FARTINI ALIA BINTI ALIAS</t>
   </si>
   <si>
     <t>ZP44</t>
   </si>
   <si>
-    <t>RIDZUAN HAZAMI BIN RIZALMAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AIMAN BIN ABDUL BASID</t>
-  </si>
-  <si>
-    <t>FAIRUZ NAJIHAH BINTI ABDUL HAKKIM TAJUDDIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NAIM ARIFFUDIN BIN ARIFFIN</t>
-  </si>
-  <si>
-    <t>SHUGANES A/L BRABAGARAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FARISS HAZIQ BIN IZWAN FAIZAL</t>
-  </si>
-  <si>
-    <t>NUR ATIKAH BINTI IBRAHIM</t>
-  </si>
-  <si>
-    <t>MUHAMAD AZMEER BIN SULAIMAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD LUQMANUL HAKIM BIN AZMYE</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ISKANDAR AMIN BIN AIDIL FITRI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD EZRAL DANIESH BIN MUHAMMAD EFFENDY</t>
-  </si>
-  <si>
-    <t>CHRISTOPER ELIEZER ANAK FRANCIS</t>
-  </si>
-  <si>
-    <t>NURAZUANI BINTI ABD WAHID</t>
-  </si>
-  <si>
-    <t>LEE MHING WAI GIORDON</t>
-  </si>
-  <si>
-    <t>SITI NUR ALYA INSYIRAH BINTI MOHAMAD FAUZI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SYAFIQ DANIAL BIN MOHD FAIZAL</t>
-  </si>
-  <si>
-    <t>PUTRA AMZZAR BIN AZMAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AREFF AFFEQ BIN SALEKIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD DANIAL ASYRAF BIN MOHD YUSERI</t>
-  </si>
-  <si>
-    <t>NUR SYAHIRAH IZZATI BINTI SAMSURI</t>
-  </si>
-  <si>
-    <t>NUR FATIHAH HUSNA BINTI MOHD FAUZI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RAZI HASIF BIN RAMLE</t>
-  </si>
-  <si>
-    <t>AHMAD KHAIRI BIN NORDIN</t>
-  </si>
-  <si>
-    <t>'ARIFAH MAISARAH BINTI AHMAD SAFARUDDIN</t>
-  </si>
-  <si>
-    <t>HAIMAN HAKIM BIN MOHAMED SHOKRI</t>
-  </si>
-  <si>
-    <t>NURUL AFIQAH NABILA BINTI JUMAADI</t>
-  </si>
-  <si>
-    <t>NOR ATIKAH BINTI HASAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SAIFUL DAINEL BIN NAZARUDIN</t>
-  </si>
-  <si>
-    <t>AIFA NUR AMANI BINTI SHAIDON</t>
-  </si>
-  <si>
-    <t>MOHAMAD FIRDAUS BIN MOHAMAD AMIN</t>
-  </si>
-  <si>
-    <t>SHAH ISKANDAR BIN EDDY RIDZUAN</t>
-  </si>
-  <si>
-    <t>NURUL SYAFIQAH BINTI AHMAD HAFIDZI</t>
-  </si>
-  <si>
-    <t>SITI QISTINA SYAKIRAH BINTI NAZRON</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SUFI BIN NORAZIZI</t>
-  </si>
-  <si>
-    <t>MIZA BATRISYIA BINTI MAZALAN</t>
-  </si>
-  <si>
-    <t>SAYYIDAH BINTI BAHARUDDIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD MUQRIEZ BIN MIZAR</t>
-  </si>
-  <si>
-    <t>ALIFATUL MASHKURAH BINTI MUHMAD ZAFFERI</t>
-  </si>
-  <si>
     <t>ZP45</t>
-  </si>
-  <si>
-    <t>NURUL FARZANAH ISMAHANI BINTI MAT ARID</t>
-  </si>
-  <si>
-    <t>NUR AI'NNISHA BINTI MOHD ALI</t>
-  </si>
-  <si>
-    <t>NIK MARZUQ RIFQI BIN MOHAMMAD</t>
-  </si>
-  <si>
-    <t>NUR DINI AYUNI BINTI JAFRY DIN</t>
-  </si>
-  <si>
-    <t>AQIF DANISH BIN MOHAMAD FAUZI</t>
-  </si>
-  <si>
-    <t>TIARA NURDINA DANIA BINTI SHAHARUDIN</t>
-  </si>
-  <si>
-    <t>NUR ASHAMIMIE BINTI MOHD GHANI</t>
-  </si>
-  <si>
-    <t>NURUL AIN INSYIRAH BINTI MUHAMMAD NAZRY</t>
-  </si>
-  <si>
-    <t>NUR IZZAH SYAZANA BINTI SHARIZAL EFENDY</t>
-  </si>
-  <si>
-    <t>DICKSON MARK ANAK KANA</t>
-  </si>
-  <si>
-    <t>ANU AISHWARYA A/P NAGESHWARAN</t>
   </si>
   <si>
     <t>ZP47</t>
   </si>
   <si>
-    <t>MOHAMAD AZMIZAN BIN MOHAMAD RAZALI</t>
-  </si>
-  <si>
-    <t>MOHAMAD SYAZWAN BIN MOHAMAD SAMSURI</t>
-  </si>
-  <si>
-    <t>NADHRAH ALIMAH BINTI ZULKIFLI</t>
-  </si>
-  <si>
-    <t>NUR HANISAH ADAWIYAH BINTI HAMIZAM</t>
-  </si>
-  <si>
-    <t>MUHAMAD SHAHRUL IDZHAM BIN ABD HALIM</t>
-  </si>
-  <si>
-    <t>MUHAMAD NASRUL BIN NASARUDIN</t>
-  </si>
-  <si>
-    <t>SITI NUR ALEEYA BINTI ATAN</t>
-  </si>
-  <si>
-    <t>HARIENDRANATH A/L RAJENDRAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HARRIS NAJMI BIN YUSNAIDI</t>
-  </si>
-  <si>
-    <t>NURUL ASYIQIN BINTI MUHAMAD ARAFAT</t>
-  </si>
-  <si>
-    <t>NUR AIN QISTINA BINTI MOHAMAD NAZRI</t>
-  </si>
-  <si>
     <t>ZP58</t>
-  </si>
-  <si>
-    <t>NORIZATULNATASHA BINTI AZMI</t>
-  </si>
-  <si>
-    <t>NUR FARZANA BINTI ROSELI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IRFAN NAIM BIN AMINUDDIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ARFAN DANIAL BIN AZHAR</t>
-  </si>
-  <si>
-    <t>WAN MUHAMAD AZLAN BIN WAN AZHAR</t>
-  </si>
-  <si>
-    <t>NELSON ANAK NAYA</t>
-  </si>
-  <si>
-    <t>NORHAZRINA BINTI MOHD ZIN</t>
-  </si>
-  <si>
-    <t>NUR IMAN ALIA BINTI ABDULLAH</t>
-  </si>
-  <si>
-    <t>MITHRASHINI A/P GANESH</t>
-  </si>
-  <si>
-    <t>NUR SOFEA AYUNI BINTI MD RADZI</t>
-  </si>
-  <si>
-    <t>WAHIDAH BINTI JOHARI</t>
-  </si>
-  <si>
-    <t>MOHAMAD MIRZA BIN JAMALI</t>
-  </si>
-  <si>
-    <t>MOHAMAD ADAM BIN HAJI MOHAMED NASIR</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AIMAN BIN MOHD RAZI</t>
-  </si>
-  <si>
-    <t>NUR ALEEYA NAJWA BINTI ADNAN</t>
-  </si>
-  <si>
-    <t>JANNAH BINTI MOHD JASRUL</t>
-  </si>
-  <si>
-    <t>NUR IZZATI BINTI MOKHTAR</t>
-  </si>
-  <si>
-    <t>SITI NURFAQIHAH BINTI MOHD FADZIL</t>
-  </si>
-  <si>
-    <t>NUR AMIRAH ALIYA BINTI MOHD ASRI</t>
-  </si>
-  <si>
-    <t>ISNA AZRINAZ BINTI RAMLI</t>
-  </si>
-  <si>
-    <t>HARRISON HENNICK ANAK GIKIM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HAKIMI BIN AMIR HAMZAH</t>
-  </si>
-  <si>
-    <t>ADRIAN LEE KAR XEE</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AMIRUL HAZIQ BIN MOHD ALI HANAFIAH</t>
-  </si>
-  <si>
-    <t>SANGKITHA A/P RAGUNATHAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AFIQ BIN SALLEH</t>
-  </si>
-  <si>
-    <t>SOFI HAIKAL BIN AYOB</t>
-  </si>
-  <si>
-    <t>RAYNOLDALVIN BIN ANGAI</t>
-  </si>
-  <si>
-    <t>AMIRUL HANIF BIN AMIRIZAN</t>
-  </si>
-  <si>
-    <t>ALIFF NAJMI BIN RUSLI</t>
-  </si>
-  <si>
-    <t>NUR ERNIE EMELIN BINTI MOHD JAFFRI</t>
-  </si>
-  <si>
-    <t>NUR ALIYA SHAHIRAH BINTI MOHD AZMAN</t>
   </si>
   <si>
     <t>ZP63</t>
   </si>
   <si>
-    <t>MUHAMMAD THAQIF BIN ZOLKIFLI</t>
-  </si>
-  <si>
-    <t>AHMAD FARIS BIN ZAMRI</t>
-  </si>
-  <si>
-    <t>AINUL MARDHIAH BINTI MASHUGI</t>
-  </si>
-  <si>
-    <t>NORZULAIKHA BINTI A.RAZAK</t>
-  </si>
-  <si>
-    <t>ABDUL RAUF SAFWAN BIN ABU HALIPAH</t>
-  </si>
-  <si>
-    <t>MOHAMAD FITRI NOOR IMAN MOHD AMIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SYAUKANI BIN YAHYA</t>
-  </si>
-  <si>
-    <t>MOHAMAD SYABILILLAH BIN ABDULLAH</t>
-  </si>
-  <si>
-    <t>AINI FAQIHAH BINTI ABDUL SALAM</t>
-  </si>
-  <si>
     <t>ZP64</t>
-  </si>
-  <si>
-    <t>NUR ATHIRAH BINTI MUHAMMAD TERMIZI</t>
-  </si>
-  <si>
-    <t>ASLINDA BINTI NIPPI</t>
-  </si>
-  <si>
-    <t>NIK AINUL NADHIRAH BINTI SALEHUDDIN</t>
-  </si>
-  <si>
-    <t>QISTINA ALEYA BINTI AZIZUN</t>
-  </si>
-  <si>
-    <t>AIFATUN NUR BINTI ALIAS</t>
-  </si>
-  <si>
-    <t>HURUN NAJLAA NAWWARAH BINTI MD SHAHRIL</t>
-  </si>
-  <si>
-    <t>DAMIA ALLEYSA BINTI NOORHISHAM</t>
-  </si>
-  <si>
-    <t>NUR AISYAH SOFIAH BINTI MOHD ZULKEFLE</t>
   </si>
   <si>
     <t>ZP65</t>
   </si>
   <si>
-    <t>JIVAN RAJ A/L MAHENDRAN</t>
-  </si>
-  <si>
-    <t>NOR ARIFIN BIN MUHAMMAD ALIM</t>
-  </si>
-  <si>
-    <t>NOOR FATHIHAH BINTI MUHAMAD SALIM</t>
-  </si>
-  <si>
-    <t>ANIS SYAFIQAH BINTI AHMAD JESSREE</t>
-  </si>
-  <si>
-    <t>PRESILA ANAK ROLLAND</t>
-  </si>
-  <si>
-    <t>HAIFA RAFIQAH BINTI RAHIM</t>
-  </si>
-  <si>
-    <t>PUTERI NOR AIDA BINTI AZLAN</t>
-  </si>
-  <si>
-    <t>LIM LIT EN</t>
-  </si>
-  <si>
-    <t>NUR HANIM BINTI MOHD ZAHIR</t>
-  </si>
-  <si>
-    <t>SYAHMI FITRI BIN ROZAIMI</t>
-  </si>
-  <si>
-    <t>ANIS SOFEA BINTI IDRIS</t>
-  </si>
-  <si>
-    <t>NURAFIQAH SYAKILAH BINTI KALANA</t>
-  </si>
-  <si>
     <t>ZB03</t>
-  </si>
-  <si>
-    <t>A'LYA SAKINAH BINTI HARUN</t>
-  </si>
-  <si>
-    <t>NUR ADREANNA SYAFEA BINTI MOHD AZMI</t>
-  </si>
-  <si>
-    <t>NURIN AYUNI BINTI MOHAMMED TARMIZI</t>
-  </si>
-  <si>
-    <t>NURUL SHAKILA NABHILAH BINTI MUHAMMAD</t>
-  </si>
-  <si>
-    <t>AHMAD ALIF BIN AHMAD FUAD</t>
-  </si>
-  <si>
-    <t>NURMAISARAH</t>
-  </si>
-  <si>
-    <t>NUR BAZILAH AINA BINTI ISMAIL</t>
-  </si>
-  <si>
-    <t>PUTRI SHAHIRA BINTI ABD RAHAMAN</t>
-  </si>
-  <si>
-    <t>BAINDY ANAK BAJUT</t>
-  </si>
-  <si>
-    <t>NUR AIN NAJWA BINTI KHAIRUL ANUAR</t>
-  </si>
-  <si>
-    <t>NOR AZMIRA AIZAM BINTI NOOR AZIZAN</t>
-  </si>
-  <si>
-    <t>MUHAMAD AMIR BIN SABUDIN</t>
-  </si>
-  <si>
-    <t>NUR HAYATI BINTI ISHAK</t>
-  </si>
-  <si>
-    <t>RAMANA A/L SELVA KUMAR</t>
-  </si>
-  <si>
-    <t>NUR LIYANA BINTI ZAKHRUL RIZAL</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FATEH BIN ASHARI</t>
-  </si>
-  <si>
-    <t>NURFAIZATUL HALWA BINTI ISMAIL</t>
-  </si>
-  <si>
-    <t>RIDZUAN MOHAMAD HASRUL BIN ABDULLAH</t>
-  </si>
-  <si>
-    <t>YASMIN NURSYUHADA BINTI MOHD ROFAIZAL</t>
-  </si>
-  <si>
-    <t>AIZATUL SYAMIERA AMSYAR BINTI AZRI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ZIKRI ILHAM BIN MASRI</t>
-  </si>
-  <si>
-    <t>SYLVICA BINTI JASNI</t>
-  </si>
-  <si>
-    <t>NOORFATASHA BINTI FAIZAL</t>
-  </si>
-  <si>
-    <t>SITI FAIRUS BINTI SEHAK</t>
-  </si>
-  <si>
-    <t>SITI KHADIJAH BINTI SAMANAN</t>
-  </si>
-  <si>
-    <t>NURUL NAZIERA BINTI MOHD NAZERI</t>
-  </si>
-  <si>
-    <t>SAFIQ ALIF MUZAFFAR BIN AMZAM</t>
-  </si>
-  <si>
-    <t>NUR SYAZREEN BINTI AZAHAR</t>
   </si>
   <si>
     <t>ZS02</t>
   </si>
   <si>
-    <t>SHARATH A/L MUNIANDY</t>
-  </si>
-  <si>
-    <t>NURUL ALISYA SABRINA BINTI ABD SHUKOR</t>
-  </si>
-  <si>
-    <t>RAJA IZZAT HUZAIMI BIN RAJA BADRULHISHAM</t>
-  </si>
-  <si>
-    <t>IKMAL FAHRI BIN ASHAR</t>
-  </si>
-  <si>
-    <t>IKMAL FAHMI BIN ASHAR</t>
-  </si>
-  <si>
-    <t>NUR ABYANA BINTI MOHAMMAD FAIZHAL</t>
-  </si>
-  <si>
-    <t>MUHAMAD YUSHAZAIRUL BIN YUSRI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HAFIY BIN MAZLAN</t>
-  </si>
-  <si>
-    <t>EMILY AZUHA</t>
-  </si>
-  <si>
-    <t>ATIQAH MAZWIN BINTI ABDUL MOZID</t>
-  </si>
-  <si>
-    <t>MUHAMAD SUOLIHIN MUSTAQIM BIN JAFRIDIN</t>
-  </si>
-  <si>
-    <t>NURUL FATIN ADRIYANA BINTI MOHD AZMAN</t>
-  </si>
-  <si>
-    <t>MOHD SHARUL ADAM BIN JAMLIN</t>
-  </si>
-  <si>
-    <t>AIMAN BIN MOHD KHAIRUL FAIZI</t>
-  </si>
-  <si>
-    <t>PERYCKSON PELIPUS</t>
-  </si>
-  <si>
-    <t>MUHD SYAIRUL HAZWAN BIN HAZAIMI</t>
-  </si>
-  <si>
-    <t>WAN NURDAYANA BINTI WAN ISMAIL</t>
-  </si>
-  <si>
-    <t>INTAN NURIRDINA FAQIHAH BINTI MOHD AZHAR</t>
-  </si>
-  <si>
-    <t>NUR THAQIF BIN RIZAL</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IQBAL BIN NOOR AZMAN SHAH</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AIMAN BIN MOHD NORAIN</t>
-  </si>
-  <si>
-    <t>LAXMAN A/L RAMES</t>
-  </si>
-  <si>
-    <t>GHAVINDCHARAN A/L N SUTHAGAR</t>
-  </si>
-  <si>
-    <t>PRAVIN A/L SENTHIL KUMARAN</t>
-  </si>
-  <si>
-    <t>ADAM HARRIS BIN SHAHARUDIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AZROL BIN ZURAIMI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD DINI IMMAN NURHAN BIN SHAMSUL KHOMAR</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FAKHRI NAFIE BIN MD WARITH</t>
-  </si>
-  <si>
-    <t>UMAR HARRIS BIN MOHD ZAWAWI</t>
-  </si>
-  <si>
-    <t>NUR HADIRAH BINTI MOHD JOHARI</t>
-  </si>
-  <si>
-    <t>AMIERRUL FARISH BIN OSFAIRULAZMIR</t>
-  </si>
-  <si>
     <t>ZC00</t>
-  </si>
-  <si>
-    <t>IVAN CHONG</t>
-  </si>
-  <si>
-    <t>MIA NURMAISARA BINTI RIDUAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ISKANDAR BIN MD YUSSOF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUHAMAD ADLI BIN MAT ROSDI                                                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUHAMMAD SYUKRI BIN SUHAIMI                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">YAASHVAAN A/L PARAMASIVAM                                                       </t>
-  </si>
-  <si>
-    <t>NATRAH BINTI MD SAAD</t>
-  </si>
-  <si>
-    <t>FAHMI BIN SALLEH</t>
-  </si>
-  <si>
-    <t>LAILATI BINTI MOHD</t>
-  </si>
-  <si>
-    <t>NORLEN BINTI OTHMAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD SYAHMI BIN MOHD TASRANI</t>
-  </si>
-  <si>
-    <t>AIMAN SYAKIRIN BIN MUHAMMAD MAWARDI</t>
-  </si>
-  <si>
-    <t>ALLOYSIUS EDWARD JOHN</t>
-  </si>
-  <si>
-    <t>NABIHATUL UZMA BINTI LATIF</t>
-  </si>
-  <si>
-    <t>NUR ATHIRAH ELYANA BINTI MOHD SHAHZILEE</t>
-  </si>
-  <si>
-    <t>UMARRUL HAKIKI BIN UMAR AL-KHATTAB</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AFIQ BIN ABDUL JAMIL</t>
-  </si>
-  <si>
-    <t>MUHAMMAD MUHAIMI BIN MOHD YUSOFF</t>
-  </si>
-  <si>
-    <t>IRFAN HUZAIMI BIN MOHD NASHILA</t>
-  </si>
-  <si>
-    <t>MOHD ASYRAF BIN AZIZ</t>
-  </si>
-  <si>
-    <t>MUHAMMAD HAZIQ HAIKAL BIN NORHISHAM</t>
-  </si>
-  <si>
-    <t>KARTIIYAYINI A/P RAJARAM</t>
-  </si>
-  <si>
-    <t>KAMAL AFIQ BIN MOHAMMAD KAMIL</t>
-  </si>
-  <si>
-    <t>HARIESHA A/P SIVA BALLAN</t>
-  </si>
-  <si>
-    <t>IRFAN FIKRI BIN MAZELAN</t>
-  </si>
-  <si>
-    <t>AHMAD AFIQ BIN ZAILANUDIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FIRDAUS AMANI BIN ROSLI</t>
-  </si>
-  <si>
-    <t>MIZA IFFAHNUR HAJAR BINTI MAZLIME</t>
-  </si>
-  <si>
-    <t>NURAISYAH ILYA HUMAIRA' BINTI TAUFIK ADAM</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IQBAL BIN ROSLAN</t>
-  </si>
-  <si>
-    <t>WONG PEI YI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUR INATHA KHAIRUNIYAH BINTI WIRA                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUR AFINI ATHIRAH BINTI MOHD ARIFF                                              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUHAMMAD JAZIL BIN NORASMAWI                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAZANIANE SABINUS                                                               </t>
-  </si>
-  <si>
-    <t>SITI NUR SAADIAH BINTI ABD JALIL</t>
-  </si>
-  <si>
-    <t>NURIN ADANI AQILAH BINTI ZAINAL ABIDIN</t>
-  </si>
-  <si>
-    <t>SITI NORHAYATI BINTI DEMA</t>
-  </si>
-  <si>
-    <t>ABDUL HANAN BIN MOHD ZAKI</t>
-  </si>
-  <si>
-    <t>POONKODI A/P SUBRAMANIAM</t>
-  </si>
-  <si>
-    <t>NUR BALQIS BINTI ABSAL EVASTRIE</t>
-  </si>
-  <si>
-    <t>NURINAISYAH BINTI ZULKIPLI</t>
-  </si>
-  <si>
-    <t>RUPPADEVI A/P ANANDAN</t>
-  </si>
-  <si>
-    <t>ALIFF DANIAL AL-HADI BIN AHMAD KHARIRI AL-HADI</t>
-  </si>
-  <si>
-    <t>NIK IRDINA BINTI NIK ZULFITRI</t>
-  </si>
-  <si>
-    <t>JAYASHIINI PRIYA A/P MAHANDREN</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +204,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -1355,7 +224,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -1375,7 +244,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1395,7 +264,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -1415,7 +284,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
@@ -1435,7 +304,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
@@ -1455,7 +324,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -1475,7 +344,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -1495,7 +364,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -1515,7 +384,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -1535,7 +404,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
@@ -1555,7 +424,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
@@ -1575,7 +444,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -1595,7 +464,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -1615,7 +484,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
@@ -1635,7 +504,7 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -1655,7 +524,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
@@ -1675,7 +544,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -1695,7 +564,7 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
@@ -1715,7 +584,7 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>7</v>
@@ -1735,7 +604,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>7</v>
@@ -1755,7 +624,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>7</v>
@@ -1775,7 +644,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>7</v>
@@ -1795,7 +664,7 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>7</v>
@@ -1815,7 +684,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>7</v>
@@ -1835,7 +704,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>7</v>
@@ -1855,10 +724,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.0</v>
@@ -1875,10 +744,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.0</v>
@@ -1895,10 +764,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.0</v>
@@ -1915,10 +784,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.5</v>
@@ -1935,10 +804,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.0</v>
@@ -1955,10 +824,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.5</v>
@@ -1975,10 +844,10 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.0</v>
@@ -1995,10 +864,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.0</v>
@@ -2015,10 +884,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.5</v>
@@ -2035,10 +904,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.0</v>
@@ -2055,10 +924,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.5</v>
@@ -2075,10 +944,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.0</v>
@@ -2095,10 +964,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.5</v>
@@ -2115,10 +984,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.0</v>
@@ -2135,10 +1004,10 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.0</v>
@@ -2155,10 +1024,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.5</v>
@@ -2175,10 +1044,10 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.5</v>
@@ -2195,10 +1064,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.0</v>
@@ -2215,10 +1084,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.0</v>
@@ -2235,10 +1104,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.5</v>
@@ -2255,10 +1124,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.0</v>
@@ -2275,10 +1144,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.5</v>
@@ -2295,10 +1164,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.5</v>
@@ -2315,10 +1184,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.5</v>
@@ -2335,10 +1204,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.0</v>
@@ -2355,10 +1224,10 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.5</v>
@@ -2375,10 +1244,10 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.0</v>
@@ -2395,10 +1264,10 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.0</v>
@@ -2415,10 +1284,10 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.0</v>
@@ -2435,10 +1304,10 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.5</v>
@@ -2455,10 +1324,10 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.5</v>
@@ -2475,10 +1344,10 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.5</v>
@@ -2495,10 +1364,10 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.0</v>
@@ -2515,10 +1384,10 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.5</v>
@@ -2535,10 +1404,10 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.0</v>
@@ -2555,10 +1424,10 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.0</v>
@@ -2575,10 +1444,10 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.0</v>
@@ -2595,10 +1464,10 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.5</v>
@@ -2615,10 +1484,10 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.0</v>
@@ -2635,10 +1504,10 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.5</v>
@@ -2655,10 +1524,10 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.0</v>
@@ -2675,10 +1544,10 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.0</v>
@@ -2695,10 +1564,10 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>4.0</v>
@@ -2715,10 +1584,10 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.5</v>
@@ -2735,10 +1604,10 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.0</v>
@@ -2755,10 +1624,10 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>4.0</v>
@@ -2775,10 +1644,10 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.5</v>
@@ -2795,10 +1664,10 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>4.0</v>
@@ -2815,10 +1684,10 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.0</v>
@@ -2835,10 +1704,10 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.5</v>
@@ -2855,10 +1724,10 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>4.0</v>
@@ -2875,10 +1744,10 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.5</v>
@@ -2895,10 +1764,10 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.5</v>
@@ -2915,10 +1784,10 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.5</v>
@@ -2935,10 +1804,10 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>4.0</v>
@@ -2955,10 +1824,10 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>4.0</v>
@@ -2975,10 +1844,10 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.5</v>
@@ -2995,10 +1864,10 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.5</v>
@@ -3015,10 +1884,10 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>4.0</v>
@@ -3035,10 +1904,10 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.5</v>
@@ -3055,10 +1924,10 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>3.0</v>
@@ -3075,10 +1944,10 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>3.5</v>
@@ -3095,10 +1964,10 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>3.5</v>
@@ -3115,10 +1984,10 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>3.0</v>
@@ -3135,10 +2004,10 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>3.5</v>
@@ -3155,10 +2024,10 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>4.0</v>
@@ -3175,10 +2044,10 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>4.0</v>
@@ -3195,10 +2064,10 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>3.0</v>
@@ -3211,10 +2080,10 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>3.0</v>
@@ -3231,10 +2100,10 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>3.5</v>
@@ -3251,10 +2120,10 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>3.5</v>
@@ -3271,10 +2140,10 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>3.0</v>
@@ -3291,10 +2160,10 @@
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>3.0</v>
@@ -3311,10 +2180,10 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>4.0</v>
@@ -3331,10 +2200,10 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>3.5</v>
@@ -3351,10 +2220,10 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>3.5</v>
@@ -3371,10 +2240,10 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C105" s="2" t="n">
         <v>4.0</v>
@@ -3391,10 +2260,10 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C106" s="2" t="n">
         <v>4.0</v>
@@ -3411,10 +2280,10 @@
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>4.0</v>
@@ -3431,10 +2300,10 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>4.0</v>
@@ -3451,10 +2320,10 @@
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>3.5</v>
@@ -3471,10 +2340,10 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>3.5</v>
@@ -3491,10 +2360,10 @@
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>3.5</v>
@@ -3511,10 +2380,10 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>3.5</v>
@@ -3531,10 +2400,10 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>3.5</v>
@@ -3551,10 +2420,10 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>4.0</v>
@@ -3571,10 +2440,10 @@
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>4.0</v>
@@ -3591,10 +2460,10 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>3.0</v>
@@ -3607,10 +2476,10 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>3.5</v>
@@ -3627,10 +2496,10 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>3.5</v>
@@ -3647,10 +2516,10 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>4.0</v>
@@ -3667,10 +2536,10 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>3.0</v>
@@ -3687,10 +2556,10 @@
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>3.5</v>
@@ -3707,10 +2576,10 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>4.0</v>
@@ -3727,10 +2596,10 @@
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>4.0</v>
@@ -3747,10 +2616,10 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>3.0</v>
@@ -3767,10 +2636,10 @@
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C125" s="2" t="n">
         <v>4.0</v>
@@ -3787,10 +2656,10 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>3.5</v>
@@ -3807,10 +2676,10 @@
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C127" s="2" t="n">
         <v>3.5</v>
@@ -3827,10 +2696,10 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C128" s="2" t="n">
         <v>4.5</v>
@@ -3847,10 +2716,10 @@
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>3.5</v>
@@ -3867,10 +2736,10 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>3.5</v>
@@ -3887,10 +2756,10 @@
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>4.0</v>
@@ -3907,10 +2776,10 @@
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C132" s="2" t="n">
         <v>4.0</v>
@@ -3927,10 +2796,10 @@
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C133" s="2" t="n">
         <v>3.0</v>
@@ -3947,10 +2816,10 @@
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C134" s="2" t="n">
         <v>3.5</v>
@@ -3967,10 +2836,10 @@
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C135" s="2" t="n">
         <v>4.0</v>
@@ -3987,10 +2856,10 @@
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C136" s="2" t="n">
         <v>3.5</v>
@@ -4007,10 +2876,10 @@
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C137" s="2" t="n">
         <v>4.0</v>
@@ -4027,10 +2896,10 @@
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C138" s="2" t="n">
         <v>3.0</v>
@@ -4047,10 +2916,10 @@
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C139" s="2" t="n">
         <v>3.5</v>
@@ -4067,10 +2936,10 @@
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C140" s="2" t="n">
         <v>3.5</v>
@@ -4087,10 +2956,10 @@
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C141" s="2" t="n">
         <v>3.5</v>
@@ -4107,10 +2976,10 @@
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C142" s="2" t="n">
         <v>4.0</v>
@@ -4127,10 +2996,10 @@
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="C143" s="2" t="n">
         <v>4.0</v>
@@ -4147,10 +3016,10 @@
     </row>
     <row r="144">
       <c r="A144" s="4" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="C144" s="2" t="n">
         <v>4.0</v>
@@ -4167,10 +3036,10 @@
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>4.0</v>
@@ -4187,10 +3056,10 @@
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C146" s="2" t="n">
         <v>4.0</v>
@@ -4207,10 +3076,10 @@
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C147" s="2" t="n">
         <v>3.5</v>
@@ -4227,10 +3096,10 @@
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C148" s="2" t="n">
         <v>3.5</v>
@@ -4247,10 +3116,10 @@
     </row>
     <row r="149">
       <c r="A149" s="4" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C149" s="2" t="n">
         <v>4.0</v>
@@ -4267,10 +3136,10 @@
     </row>
     <row r="150">
       <c r="A150" s="4" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>4.0</v>
@@ -4287,10 +3156,10 @@
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="C151" s="2" t="n">
         <v>3.5</v>
@@ -4307,10 +3176,10 @@
     </row>
     <row r="152">
       <c r="A152" s="4" t="s">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C152" s="2" t="n">
         <v>3.5</v>
@@ -4327,10 +3196,10 @@
     </row>
     <row r="153">
       <c r="A153" s="4" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C153" s="2" t="n">
         <v>3.5</v>
@@ -4347,10 +3216,10 @@
     </row>
     <row r="154">
       <c r="A154" s="4" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C154" s="2" t="n">
         <v>3.0</v>
@@ -4367,10 +3236,10 @@
     </row>
     <row r="155">
       <c r="A155" s="4" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C155" s="2" t="n">
         <v>3.5</v>
@@ -4387,10 +3256,10 @@
     </row>
     <row r="156">
       <c r="A156" s="4" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C156" s="2" t="n">
         <v>3.5</v>
@@ -4407,10 +3276,10 @@
     </row>
     <row r="157">
       <c r="A157" s="4" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C157" s="2" t="n">
         <v>3.5</v>
@@ -4427,10 +3296,10 @@
     </row>
     <row r="158">
       <c r="A158" s="4" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C158" s="2" t="n">
         <v>3.0</v>
@@ -4447,10 +3316,10 @@
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C159" s="2" t="n">
         <v>4.0</v>
@@ -4467,10 +3336,10 @@
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C160" s="2" t="n">
         <v>3.5</v>
@@ -4487,10 +3356,10 @@
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C161" s="2" t="n">
         <v>3.5</v>
@@ -4507,10 +3376,10 @@
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C162" s="2" t="n">
         <v>3.5</v>
@@ -4527,10 +3396,10 @@
     </row>
     <row r="163">
       <c r="A163" s="4" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C163" s="2" t="n">
         <v>3.5</v>
@@ -4547,10 +3416,10 @@
     </row>
     <row r="164">
       <c r="A164" s="4" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C164" s="2" t="n">
         <v>3.5</v>
@@ -4567,10 +3436,10 @@
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C165" s="2" t="n">
         <v>3.0</v>
@@ -4587,10 +3456,10 @@
     </row>
     <row r="166">
       <c r="A166" s="4" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="C166" s="2" t="n">
         <v>3.5</v>
@@ -4607,10 +3476,10 @@
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C167" s="2" t="n">
         <v>3.0</v>
@@ -4627,10 +3496,10 @@
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C168" s="2" t="n">
         <v>3.5</v>
@@ -4647,10 +3516,10 @@
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C169" s="2" t="n">
         <v>3.0</v>
@@ -4667,10 +3536,10 @@
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C170" s="2" t="n">
         <v>3.5</v>
@@ -4687,10 +3556,10 @@
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C171" s="2" t="n">
         <v>3.5</v>
@@ -4707,10 +3576,10 @@
     </row>
     <row r="172">
       <c r="A172" s="4" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C172" s="2" t="n">
         <v>3.5</v>
@@ -4727,10 +3596,10 @@
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="C173" s="2" t="n">
         <v>3.5</v>
@@ -4747,10 +3616,10 @@
     </row>
     <row r="174">
       <c r="A174" s="4" t="s">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C174" s="2" t="n">
         <v>3.5</v>
@@ -4767,10 +3636,10 @@
     </row>
     <row r="175">
       <c r="A175" s="4" t="s">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C175" s="2" t="n">
         <v>4.0</v>
@@ -4787,10 +3656,10 @@
     </row>
     <row r="176">
       <c r="A176" s="4" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="C176" s="2" t="n">
         <v>3.0</v>
@@ -4807,10 +3676,10 @@
     </row>
     <row r="177">
       <c r="A177" s="4" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="C177" s="2" t="n">
         <v>3.5</v>
@@ -4827,10 +3696,10 @@
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C178" s="2" t="n">
         <v>3.5</v>
@@ -4847,10 +3716,10 @@
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C179" s="2" t="n">
         <v>3.0</v>
@@ -4867,10 +3736,10 @@
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C180" s="2" t="n">
         <v>3.0</v>
@@ -4887,10 +3756,10 @@
     </row>
     <row r="181">
       <c r="A181" s="4" t="s">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C181" s="2" t="n">
         <v>3.0</v>
@@ -4907,10 +3776,10 @@
     </row>
     <row r="182">
       <c r="A182" s="4" t="s">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C182" s="2" t="n">
         <v>3.0</v>
@@ -4927,10 +3796,10 @@
     </row>
     <row r="183">
       <c r="A183" s="4" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C183" s="2" t="n">
         <v>3.0</v>
@@ -4947,10 +3816,10 @@
     </row>
     <row r="184">
       <c r="A184" s="4" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C184" s="2" t="n">
         <v>3.5</v>
@@ -4967,10 +3836,10 @@
     </row>
     <row r="185">
       <c r="A185" s="4" t="s">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C185" s="2" t="n">
         <v>3.0</v>
@@ -4987,10 +3856,10 @@
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C186" s="2" t="n">
         <v>4.5</v>
@@ -5007,10 +3876,10 @@
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C187" s="2" t="n">
         <v>3.5</v>
@@ -5027,10 +3896,10 @@
     </row>
     <row r="188">
       <c r="A188" s="4" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C188" s="2" t="n">
         <v>3.5</v>
@@ -5047,10 +3916,10 @@
     </row>
     <row r="189">
       <c r="A189" s="4" t="s">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C189" s="2" t="n">
         <v>3.5</v>
@@ -5067,10 +3936,10 @@
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C190" s="2" t="n">
         <v>3.5</v>
@@ -5087,10 +3956,10 @@
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C191" s="2" t="n">
         <v>3.5</v>
@@ -5107,10 +3976,10 @@
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="C192" s="2" t="n">
         <v>3.5</v>
@@ -5127,10 +3996,10 @@
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="C193" s="2" t="n">
         <v>3.5</v>
@@ -5147,10 +4016,10 @@
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="C194" s="2" t="n">
         <v>3.0</v>
@@ -5167,10 +4036,10 @@
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
       <c r="C195" s="2" t="n">
         <v>3.5</v>
@@ -5187,10 +4056,10 @@
     </row>
     <row r="196">
       <c r="A196" s="4" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="C196" s="2" t="n">
         <v>3.5</v>
@@ -5207,10 +4076,10 @@
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
       <c r="C197" s="2" t="n">
         <v>3.5</v>
@@ -5227,10 +4096,10 @@
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="C198" s="2" t="n">
         <v>3.0</v>
@@ -5247,10 +4116,10 @@
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="C199" s="2" t="n">
         <v>4.0</v>
@@ -5267,10 +4136,10 @@
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="C200" s="2" t="n">
         <v>3.5</v>
@@ -5287,10 +4156,10 @@
     </row>
     <row r="201">
       <c r="A201" s="4" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="C201" s="2" t="n">
         <v>3.5</v>
@@ -5307,10 +4176,10 @@
     </row>
     <row r="202">
       <c r="A202" s="4" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="C202" s="2" t="n">
         <v>2.0</v>
@@ -5323,10 +4192,10 @@
     </row>
     <row r="203">
       <c r="A203" s="4" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="C203" s="2" t="n">
         <v>4.0</v>
@@ -5343,10 +4212,10 @@
     </row>
     <row r="204">
       <c r="A204" s="4" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="C204" s="2" t="n">
         <v>3.5</v>
@@ -5363,10 +4232,10 @@
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>220</v>
+        <v>9</v>
       </c>
       <c r="C205" s="2" t="n">
         <v>3.5</v>
@@ -5383,10 +4252,10 @@
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>220</v>
+        <v>9</v>
       </c>
       <c r="C206" s="2" t="n">
         <v>3.5</v>
@@ -5403,10 +4272,10 @@
     </row>
     <row r="207">
       <c r="A207" s="4" t="s">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="C207" s="2" t="n">
         <v>3.5</v>
@@ -5423,10 +4292,10 @@
     </row>
     <row r="208">
       <c r="A208" s="4" t="s">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="C208" s="2" t="n">
         <v>3.0</v>
@@ -5443,10 +4312,10 @@
     </row>
     <row r="209">
       <c r="A209" s="4" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="C209" s="2" t="n">
         <v>3.5</v>
@@ -5463,10 +4332,10 @@
     </row>
     <row r="210">
       <c r="A210" s="4" t="s">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="C210" s="2" t="n">
         <v>3.5</v>
@@ -5483,10 +4352,10 @@
     </row>
     <row r="211">
       <c r="A211" s="4" t="s">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="C211" s="2" t="n">
         <v>4.0</v>
@@ -5503,10 +4372,10 @@
     </row>
     <row r="212">
       <c r="A212" s="4" t="s">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="C212" s="2" t="n">
         <v>3.5</v>
@@ -5523,10 +4392,10 @@
     </row>
     <row r="213">
       <c r="A213" s="4" t="s">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="C213" s="2" t="n">
         <v>4.0</v>
@@ -5543,10 +4412,10 @@
     </row>
     <row r="214">
       <c r="A214" s="4" t="s">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C214" s="2" t="n">
         <v>3.5</v>
@@ -5563,10 +4432,10 @@
     </row>
     <row r="215">
       <c r="A215" s="4" t="s">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C215" s="2" t="n">
         <v>3.0</v>
@@ -5583,10 +4452,10 @@
     </row>
     <row r="216">
       <c r="A216" s="4" t="s">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C216" s="2" t="n">
         <v>3.5</v>
@@ -5603,10 +4472,10 @@
     </row>
     <row r="217">
       <c r="A217" s="4" t="s">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C217" s="2" t="n">
         <v>3.5</v>
@@ -5623,10 +4492,10 @@
     </row>
     <row r="218">
       <c r="A218" s="4" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C218" s="2" t="n">
         <v>3.0</v>
@@ -5643,10 +4512,10 @@
     </row>
     <row r="219">
       <c r="A219" s="4" t="s">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C219" s="2" t="n">
         <v>3.5</v>
@@ -5663,10 +4532,10 @@
     </row>
     <row r="220">
       <c r="A220" s="4" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C220" s="2" t="n">
         <v>3.5</v>
@@ -5683,10 +4552,10 @@
     </row>
     <row r="221">
       <c r="A221" s="4" t="s">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="C221" s="2" t="n">
         <v>2.5</v>
@@ -5703,10 +4572,10 @@
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C222" s="2" t="n">
         <v>3.5</v>
@@ -5723,10 +4592,10 @@
     </row>
     <row r="223">
       <c r="A223" s="4" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C223" s="2" t="n">
         <v>3.5</v>
@@ -5743,10 +4612,10 @@
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C224" s="2" t="n">
         <v>3.5</v>
@@ -5763,10 +4632,10 @@
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C225" s="2" t="n">
         <v>3.5</v>
@@ -5783,10 +4652,10 @@
     </row>
     <row r="226">
       <c r="A226" s="4" t="s">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C226" s="2" t="n">
         <v>3.0</v>
@@ -5803,10 +4672,10 @@
     </row>
     <row r="227">
       <c r="A227" s="4" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C227" s="2" t="n">
         <v>3.0</v>
@@ -5823,10 +4692,10 @@
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
-        <v>246</v>
+        <v>21</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C228" s="2" t="n">
         <v>3.5</v>
@@ -5843,10 +4712,10 @@
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
-        <v>247</v>
+        <v>21</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C229" s="2" t="n">
         <v>3.5</v>
@@ -5863,10 +4732,10 @@
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
-        <v>248</v>
+        <v>21</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C230" s="2" t="n">
         <v>4.0</v>
@@ -5883,10 +4752,10 @@
     </row>
     <row r="231">
       <c r="A231" s="4" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C231" s="2" t="n">
         <v>3.5</v>
@@ -5903,10 +4772,10 @@
     </row>
     <row r="232">
       <c r="A232" s="4" t="s">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C232" s="2" t="n">
         <v>3.5</v>
@@ -5923,10 +4792,10 @@
     </row>
     <row r="233">
       <c r="A233" s="4" t="s">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C233" s="2" t="n">
         <v>3.0</v>
@@ -5943,10 +4812,10 @@
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C234" s="2" t="n">
         <v>3.0</v>
@@ -5963,10 +4832,10 @@
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
-        <v>253</v>
+        <v>21</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C235" s="2" t="n">
         <v>3.5</v>
@@ -5983,10 +4852,10 @@
     </row>
     <row r="236">
       <c r="A236" s="4" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="C236" s="2" t="n">
         <v>3.5</v>
@@ -6003,10 +4872,10 @@
     </row>
     <row r="237">
       <c r="A237" s="4" t="s">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C237" s="2" t="n">
         <v>3.5</v>
@@ -6023,10 +4892,10 @@
     </row>
     <row r="238">
       <c r="A238" s="4" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C238" s="2" t="n">
         <v>3.5</v>
@@ -6043,10 +4912,10 @@
     </row>
     <row r="239">
       <c r="A239" s="4" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C239" s="2" t="n">
         <v>3.5</v>
@@ -6063,10 +4932,10 @@
     </row>
     <row r="240">
       <c r="A240" s="4" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C240" s="2" t="n">
         <v>3.5</v>
@@ -6083,10 +4952,10 @@
     </row>
     <row r="241">
       <c r="A241" s="4" t="s">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C241" s="2" t="n">
         <v>3.5</v>
@@ -6103,10 +4972,10 @@
     </row>
     <row r="242">
       <c r="A242" s="4" t="s">
-        <v>260</v>
+        <v>21</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C242" s="2" t="n">
         <v>3.0</v>
@@ -6123,10 +4992,10 @@
     </row>
     <row r="243">
       <c r="A243" s="4" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C243" s="2" t="n">
         <v>2.5</v>
@@ -6143,10 +5012,10 @@
     </row>
     <row r="244">
       <c r="A244" s="4" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C244" s="2" t="n">
         <v>4.0</v>
@@ -6163,10 +5032,10 @@
     </row>
     <row r="245">
       <c r="A245" s="4" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C245" s="2" t="n">
         <v>3.5</v>
@@ -6183,10 +5052,10 @@
     </row>
     <row r="246">
       <c r="A246" s="4" t="s">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="C246" s="2" t="n">
         <v>3.5</v>
@@ -6203,10 +5072,10 @@
     </row>
     <row r="247">
       <c r="A247" s="4" t="s">
-        <v>266</v>
+        <v>22</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="C247" s="2" t="n">
         <v>3.5</v>
@@ -6223,10 +5092,10 @@
     </row>
     <row r="248">
       <c r="A248" s="4" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="C248" s="2" t="n">
         <v>3.0</v>
@@ -6243,10 +5112,10 @@
     </row>
     <row r="249">
       <c r="A249" s="4" t="s">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="C249" s="2" t="n">
         <v>3.0</v>
@@ -6263,10 +5132,10 @@
     </row>
     <row r="250">
       <c r="A250" s="4" t="s">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="C250" s="2" t="n">
         <v>3.0</v>
@@ -6283,10 +5152,10 @@
     </row>
     <row r="251">
       <c r="A251" s="4" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="C251" s="2" t="n">
         <v>3.0</v>
@@ -6303,10 +5172,10 @@
     </row>
     <row r="252">
       <c r="A252" s="4" t="s">
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="C252" s="2" t="n">
         <v>4.0</v>
@@ -6323,10 +5192,10 @@
     </row>
     <row r="253">
       <c r="A253" s="4" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="C253" s="2" t="n">
         <v>3.5</v>
@@ -6343,10 +5212,10 @@
     </row>
     <row r="254">
       <c r="A254" s="4" t="s">
-        <v>273</v>
+        <v>22</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="C254" s="2" t="n">
         <v>3.5</v>
@@ -6363,10 +5232,10 @@
     </row>
     <row r="255">
       <c r="A255" s="4" t="s">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>275</v>
+        <v>7</v>
       </c>
       <c r="C255" s="2" t="n">
         <v>3.5</v>
@@ -6383,10 +5252,10 @@
     </row>
     <row r="256">
       <c r="A256" s="4" t="s">
-        <v>276</v>
+        <v>23</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>275</v>
+        <v>7</v>
       </c>
       <c r="C256" s="2" t="n">
         <v>3.5</v>
@@ -6403,10 +5272,10 @@
     </row>
     <row r="257">
       <c r="A257" s="4" t="s">
-        <v>277</v>
+        <v>23</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>275</v>
+        <v>7</v>
       </c>
       <c r="C257" s="2" t="n">
         <v>3.0</v>
@@ -6423,10 +5292,10 @@
     </row>
     <row r="258">
       <c r="A258" s="4" t="s">
-        <v>278</v>
+        <v>23</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>275</v>
+        <v>7</v>
       </c>
       <c r="C258" s="2" t="n">
         <v>3.5</v>
@@ -6443,10 +5312,10 @@
     </row>
     <row r="259">
       <c r="A259" s="4" t="s">
-        <v>279</v>
+        <v>23</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>275</v>
+        <v>7</v>
       </c>
       <c r="C259" s="2" t="n">
         <v>3.5</v>
@@ -6463,10 +5332,10 @@
     </row>
     <row r="260">
       <c r="A260" s="4" t="s">
-        <v>280</v>
+        <v>23</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>275</v>
+        <v>7</v>
       </c>
       <c r="C260" s="2" t="n">
         <v>3.5</v>
@@ -6483,10 +5352,10 @@
     </row>
     <row r="261">
       <c r="A261" s="4" t="s">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>275</v>
+        <v>7</v>
       </c>
       <c r="C261" s="2" t="n">
         <v>3.0</v>
@@ -6503,10 +5372,10 @@
     </row>
     <row r="262">
       <c r="A262" s="4" t="s">
-        <v>282</v>
+        <v>23</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>275</v>
+        <v>7</v>
       </c>
       <c r="C262" s="2" t="n">
         <v>3.5</v>
@@ -6523,10 +5392,10 @@
     </row>
     <row r="263">
       <c r="A263" s="4" t="s">
-        <v>283</v>
+        <v>24</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C263" s="2" t="n">
         <v>3.5</v>
@@ -6543,10 +5412,10 @@
     </row>
     <row r="264">
       <c r="A264" s="4" t="s">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C264" s="2" t="n">
         <v>4.0</v>
@@ -6563,10 +5432,10 @@
     </row>
     <row r="265">
       <c r="A265" s="4" t="s">
-        <v>286</v>
+        <v>24</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C265" s="2" t="n">
         <v>3.5</v>
@@ -6583,10 +5452,10 @@
     </row>
     <row r="266">
       <c r="A266" s="4" t="s">
-        <v>287</v>
+        <v>24</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C266" s="2" t="n">
         <v>4.0</v>
@@ -6603,10 +5472,10 @@
     </row>
     <row r="267">
       <c r="A267" s="4" t="s">
-        <v>288</v>
+        <v>24</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="C267" s="2" t="n">
         <v>4.0</v>
@@ -6623,10 +5492,10 @@
     </row>
     <row r="268">
       <c r="A268" s="4" t="s">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C268" s="2" t="n">
         <v>3.0</v>
@@ -6643,10 +5512,10 @@
     </row>
     <row r="269">
       <c r="A269" s="4" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C269" s="2" t="n">
         <v>4.5</v>
@@ -6663,10 +5532,10 @@
     </row>
     <row r="270">
       <c r="A270" s="4" t="s">
-        <v>291</v>
+        <v>24</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C270" s="2" t="n">
         <v>3.5</v>
@@ -6683,10 +5552,10 @@
     </row>
     <row r="271">
       <c r="A271" s="4" t="s">
-        <v>292</v>
+        <v>24</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C271" s="2" t="n">
         <v>3.5</v>
@@ -6703,10 +5572,10 @@
     </row>
     <row r="272">
       <c r="A272" s="4" t="s">
-        <v>293</v>
+        <v>24</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C272" s="2" t="n">
         <v>3.5</v>
@@ -6723,10 +5592,10 @@
     </row>
     <row r="273">
       <c r="A273" s="4" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C273" s="2" t="n">
         <v>3.5</v>
@@ -6743,10 +5612,10 @@
     </row>
     <row r="274">
       <c r="A274" s="4" t="s">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C274" s="2" t="n">
         <v>3.5</v>
@@ -6763,10 +5632,10 @@
     </row>
     <row r="275">
       <c r="A275" s="4" t="s">
-        <v>296</v>
+        <v>25</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C275" s="2" t="n">
         <v>3.5</v>
@@ -6783,10 +5652,10 @@
     </row>
     <row r="276">
       <c r="A276" s="4" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="C276" s="2" t="n">
         <v>3.5</v>
@@ -6803,10 +5672,10 @@
     </row>
     <row r="277">
       <c r="A277" s="4" t="s">
-        <v>299</v>
+        <v>25</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C277" s="2" t="n">
         <v>3.5</v>
@@ -6823,10 +5692,10 @@
     </row>
     <row r="278">
       <c r="A278" s="4" t="s">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C278" s="2" t="n">
         <v>3.5</v>
@@ -6843,10 +5712,10 @@
     </row>
     <row r="279">
       <c r="A279" s="4" t="s">
-        <v>301</v>
+        <v>25</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C279" s="2" t="n">
         <v>4.0</v>
@@ -6863,10 +5732,10 @@
     </row>
     <row r="280">
       <c r="A280" s="4" t="s">
-        <v>302</v>
+        <v>25</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C280" s="2" t="n">
         <v>3.5</v>
@@ -6883,10 +5752,10 @@
     </row>
     <row r="281">
       <c r="A281" s="4" t="s">
-        <v>303</v>
+        <v>25</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C281" s="2" t="n">
         <v>4.0</v>
@@ -6903,10 +5772,10 @@
     </row>
     <row r="282">
       <c r="A282" s="4" t="s">
-        <v>304</v>
+        <v>25</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C282" s="2" t="n">
         <v>3.5</v>
@@ -6923,10 +5792,10 @@
     </row>
     <row r="283">
       <c r="A283" s="4" t="s">
-        <v>305</v>
+        <v>25</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="C283" s="2" t="n">
         <v>3.5</v>
@@ -6943,10 +5812,10 @@
     </row>
     <row r="284">
       <c r="A284" s="4" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C284" s="2" t="n">
         <v>3.5</v>
@@ -6963,10 +5832,10 @@
     </row>
     <row r="285">
       <c r="A285" s="4" t="s">
-        <v>307</v>
+        <v>25</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C285" s="2" t="n">
         <v>3.5</v>
@@ -6983,10 +5852,10 @@
     </row>
     <row r="286">
       <c r="A286" s="4" t="s">
-        <v>308</v>
+        <v>25</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C286" s="2" t="n">
         <v>3.5</v>
@@ -7003,10 +5872,10 @@
     </row>
     <row r="287">
       <c r="A287" s="4" t="s">
-        <v>309</v>
+        <v>25</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C287" s="2" t="n">
         <v>3.5</v>
@@ -7023,10 +5892,10 @@
     </row>
     <row r="288">
       <c r="A288" s="4" t="s">
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C288" s="2" t="n">
         <v>4.0</v>
@@ -7043,10 +5912,10 @@
     </row>
     <row r="289">
       <c r="A289" s="4" t="s">
-        <v>311</v>
+        <v>25</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C289" s="2" t="n">
         <v>4.0</v>
@@ -7063,10 +5932,10 @@
     </row>
     <row r="290">
       <c r="A290" s="4" t="s">
-        <v>312</v>
+        <v>25</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="C290" s="2" t="n">
         <v>3.5</v>
@@ -7083,10 +5952,10 @@
     </row>
     <row r="291">
       <c r="A291" s="4" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C291" s="2" t="n">
         <v>3.5</v>
@@ -7103,10 +5972,10 @@
     </row>
     <row r="292">
       <c r="A292" s="4" t="s">
-        <v>314</v>
+        <v>25</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C292" s="2" t="n">
         <v>3.5</v>
@@ -7123,10 +5992,10 @@
     </row>
     <row r="293">
       <c r="A293" s="4" t="s">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="C293" s="2" t="n">
         <v>4.0</v>
@@ -7143,10 +6012,10 @@
     </row>
     <row r="294">
       <c r="A294" s="4" t="s">
-        <v>316</v>
+        <v>25</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="C294" s="2" t="n">
         <v>4.0</v>
@@ -7163,10 +6032,10 @@
     </row>
     <row r="295">
       <c r="A295" s="4" t="s">
-        <v>317</v>
+        <v>25</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C295" s="2" t="n">
         <v>4.0</v>
@@ -7183,10 +6052,10 @@
     </row>
     <row r="296">
       <c r="A296" s="4" t="s">
-        <v>318</v>
+        <v>25</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C296" s="2" t="n">
         <v>3.5</v>
@@ -7203,10 +6072,10 @@
     </row>
     <row r="297">
       <c r="A297" s="4" t="s">
-        <v>319</v>
+        <v>25</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C297" s="2" t="n">
         <v>3.5</v>
@@ -7223,10 +6092,10 @@
     </row>
     <row r="298">
       <c r="A298" s="4" t="s">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C298" s="2" t="n">
         <v>3.5</v>
@@ -7243,10 +6112,10 @@
     </row>
     <row r="299">
       <c r="A299" s="4" t="s">
-        <v>321</v>
+        <v>25</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C299" s="2" t="n">
         <v>3.5</v>
@@ -7263,10 +6132,10 @@
     </row>
     <row r="300">
       <c r="A300" s="4" t="s">
-        <v>322</v>
+        <v>25</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C300" s="2" t="n">
         <v>3.5</v>
@@ -7283,10 +6152,10 @@
     </row>
     <row r="301">
       <c r="A301" s="4" t="s">
-        <v>323</v>
+        <v>25</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="C301" s="2" t="n">
         <v>4.0</v>
@@ -7303,10 +6172,10 @@
     </row>
     <row r="302">
       <c r="A302" s="4" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C302" s="2" t="n">
         <v>4.0</v>
@@ -7323,10 +6192,10 @@
     </row>
     <row r="303">
       <c r="A303" s="4" t="s">
-        <v>325</v>
+        <v>26</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>326</v>
+        <v>9</v>
       </c>
       <c r="C303" s="2" t="n">
         <v>3.0</v>
@@ -7343,10 +6212,10 @@
     </row>
     <row r="304">
       <c r="A304" s="4" t="s">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C304" s="2" t="n">
         <v>3.5</v>
@@ -7363,10 +6232,10 @@
     </row>
     <row r="305">
       <c r="A305" s="4" t="s">
-        <v>328</v>
+        <v>26</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C305" s="2" t="n">
         <v>3.0</v>
@@ -7383,10 +6252,10 @@
     </row>
     <row r="306">
       <c r="A306" s="4" t="s">
-        <v>329</v>
+        <v>26</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C306" s="2" t="n">
         <v>4.0</v>
@@ -7403,10 +6272,10 @@
     </row>
     <row r="307">
       <c r="A307" s="4" t="s">
-        <v>330</v>
+        <v>26</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C307" s="2" t="n">
         <v>3.0</v>
@@ -7423,10 +6292,10 @@
     </row>
     <row r="308">
       <c r="A308" s="4" t="s">
-        <v>331</v>
+        <v>26</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C308" s="2" t="n">
         <v>3.0</v>
@@ -7443,10 +6312,10 @@
     </row>
     <row r="309">
       <c r="A309" s="4" t="s">
-        <v>332</v>
+        <v>26</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C309" s="2" t="n">
         <v>3.5</v>
@@ -7463,10 +6332,10 @@
     </row>
     <row r="310">
       <c r="A310" s="4" t="s">
-        <v>333</v>
+        <v>26</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C310" s="2" t="n">
         <v>3.0</v>
@@ -7483,10 +6352,10 @@
     </row>
     <row r="311">
       <c r="A311" s="4" t="s">
-        <v>334</v>
+        <v>26</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C311" s="2" t="n">
         <v>3.5</v>
@@ -7503,10 +6372,10 @@
     </row>
     <row r="312">
       <c r="A312" s="4" t="s">
-        <v>335</v>
+        <v>26</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C312" s="2" t="n">
         <v>4.0</v>
@@ -7523,10 +6392,10 @@
     </row>
     <row r="313">
       <c r="A313" s="4" t="s">
-        <v>336</v>
+        <v>26</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C313" s="2" t="n">
         <v>4.5</v>
@@ -7543,10 +6412,10 @@
     </row>
     <row r="314">
       <c r="A314" s="4" t="s">
-        <v>337</v>
+        <v>26</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C314" s="2" t="n">
         <v>3.0</v>
@@ -7563,10 +6432,10 @@
     </row>
     <row r="315">
       <c r="A315" s="4" t="s">
-        <v>338</v>
+        <v>26</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C315" s="2" t="n">
         <v>3.0</v>
@@ -7583,10 +6452,10 @@
     </row>
     <row r="316">
       <c r="A316" s="4" t="s">
-        <v>339</v>
+        <v>26</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>326</v>
+        <v>9</v>
       </c>
       <c r="C316" s="2" t="n">
         <v>3.5</v>
@@ -7603,10 +6472,10 @@
     </row>
     <row r="317">
       <c r="A317" s="4" t="s">
-        <v>340</v>
+        <v>26</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C317" s="2" t="n">
         <v>2.5</v>
@@ -7623,10 +6492,10 @@
     </row>
     <row r="318">
       <c r="A318" s="4" t="s">
-        <v>341</v>
+        <v>26</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C318" s="2" t="n">
         <v>2.5</v>
@@ -7643,10 +6512,10 @@
     </row>
     <row r="319">
       <c r="A319" s="4" t="s">
-        <v>342</v>
+        <v>26</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C319" s="2" t="n">
         <v>3.0</v>
@@ -7663,10 +6532,10 @@
     </row>
     <row r="320">
       <c r="A320" s="4" t="s">
-        <v>343</v>
+        <v>26</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C320" s="2" t="n">
         <v>3.0</v>
@@ -7683,10 +6552,10 @@
     </row>
     <row r="321">
       <c r="A321" s="4" t="s">
-        <v>344</v>
+        <v>26</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C321" s="2" t="n">
         <v>4.0</v>
@@ -7703,10 +6572,10 @@
     </row>
     <row r="322">
       <c r="A322" s="4" t="s">
-        <v>345</v>
+        <v>26</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C322" s="2" t="n">
         <v>4.0</v>
@@ -7723,10 +6592,10 @@
     </row>
     <row r="323">
       <c r="A323" s="4" t="s">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="C323" s="2" t="n">
         <v>3.0</v>
@@ -7743,10 +6612,10 @@
     </row>
     <row r="324">
       <c r="A324" s="4" t="s">
-        <v>347</v>
+        <v>17</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C324" s="2" t="n">
         <v>3.5</v>
@@ -7763,10 +6632,10 @@
     </row>
     <row r="325">
       <c r="A325" s="4" t="s">
-        <v>348</v>
+        <v>26</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C325" s="2" t="n">
         <v>4.0</v>
@@ -7783,10 +6652,10 @@
     </row>
     <row r="326">
       <c r="A326" s="4" t="s">
-        <v>349</v>
+        <v>14</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C326" s="2" t="n">
         <v>4.0</v>
@@ -7803,10 +6672,10 @@
     </row>
     <row r="327">
       <c r="A327" s="4" t="s">
-        <v>350</v>
+        <v>10</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C327" s="2" t="n">
         <v>4.5</v>
@@ -7823,10 +6692,10 @@
     </row>
     <row r="328">
       <c r="A328" s="4" t="s">
-        <v>351</v>
+        <v>8</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C328" s="2" t="n">
         <v>3.5</v>
@@ -7843,10 +6712,10 @@
     </row>
     <row r="329">
       <c r="A329" s="4" t="s">
-        <v>352</v>
+        <v>8</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C329" s="2" t="n">
         <v>3.5</v>
@@ -7863,10 +6732,10 @@
     </row>
     <row r="330">
       <c r="A330" s="4" t="s">
-        <v>353</v>
+        <v>8</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C330" s="2" t="n">
         <v>4.0</v>
@@ -7883,10 +6752,10 @@
     </row>
     <row r="331">
       <c r="A331" s="4" t="s">
-        <v>354</v>
+        <v>8</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C331" s="2" t="n">
         <v>3.5</v>
@@ -7903,10 +6772,10 @@
     </row>
     <row r="332">
       <c r="A332" s="4" t="s">
-        <v>355</v>
+        <v>8</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C332" s="2" t="n">
         <v>3.5</v>
@@ -7923,10 +6792,10 @@
     </row>
     <row r="333">
       <c r="A333" s="4" t="s">
-        <v>356</v>
+        <v>11</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C333" s="2" t="n">
         <v>3.5</v>
@@ -7943,10 +6812,10 @@
     </row>
     <row r="334">
       <c r="A334" s="4" t="s">
-        <v>357</v>
+        <v>27</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>358</v>
+        <v>9</v>
       </c>
       <c r="C334" s="2" t="n">
         <v>4.0</v>
@@ -7963,10 +6832,10 @@
     </row>
     <row r="335">
       <c r="A335" s="4" t="s">
-        <v>359</v>
+        <v>27</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>358</v>
+        <v>9</v>
       </c>
       <c r="C335" s="2" t="n">
         <v>5.0</v>
@@ -7983,10 +6852,10 @@
     </row>
     <row r="336">
       <c r="A336" s="4" t="s">
-        <v>360</v>
+        <v>25</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>297</v>
+        <v>9</v>
       </c>
       <c r="C336" s="2" t="n">
         <v>3.5</v>
@@ -8003,10 +6872,10 @@
     </row>
     <row r="337">
       <c r="A337" s="4" t="s">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>220</v>
+        <v>9</v>
       </c>
       <c r="C337" s="2" t="n">
         <v>4.0</v>
@@ -8023,10 +6892,10 @@
     </row>
     <row r="338">
       <c r="A338" s="4" t="s">
-        <v>362</v>
+        <v>26</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>326</v>
+        <v>9</v>
       </c>
       <c r="C338" s="2" t="n">
         <v>3.0</v>
@@ -8043,10 +6912,10 @@
     </row>
     <row r="339">
       <c r="A339" s="4" t="s">
-        <v>363</v>
+        <v>26</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>326</v>
+        <v>9</v>
       </c>
       <c r="C339" s="2" t="n">
         <v>2.0</v>
@@ -8063,10 +6932,10 @@
     </row>
     <row r="340">
       <c r="A340" s="4" t="s">
-        <v>364</v>
+        <v>27</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>358</v>
+        <v>9</v>
       </c>
       <c r="C340" s="2" t="n">
         <v>3.5</v>
@@ -8083,10 +6952,10 @@
     </row>
     <row r="341">
       <c r="A341" s="4" t="s">
-        <v>365</v>
+        <v>12</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="C341"/>
       <c r="D341" s="2" t="n">
@@ -8101,10 +6970,10 @@
     </row>
     <row r="342">
       <c r="A342" s="4" t="s">
-        <v>366</v>
+        <v>12</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C342"/>
       <c r="D342" s="2" t="n">
@@ -8119,10 +6988,10 @@
     </row>
     <row r="343">
       <c r="A343" s="4" t="s">
-        <v>367</v>
+        <v>12</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C343" s="2" t="n">
         <v>3.5</v>
@@ -8139,10 +7008,10 @@
     </row>
     <row r="344">
       <c r="A344" s="4" t="s">
-        <v>368</v>
+        <v>14</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C344" s="2" t="n">
         <v>4.0</v>
@@ -8159,10 +7028,10 @@
     </row>
     <row r="345">
       <c r="A345" s="4" t="s">
-        <v>369</v>
+        <v>11</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C345" s="2" t="n">
         <v>3.0</v>
@@ -8179,10 +7048,10 @@
     </row>
     <row r="346">
       <c r="A346" s="4" t="s">
-        <v>370</v>
+        <v>17</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C346" s="2" t="n">
         <v>4.0</v>
@@ -8199,10 +7068,10 @@
     </row>
     <row r="347">
       <c r="A347" s="4" t="s">
-        <v>371</v>
+        <v>17</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C347" s="2" t="n">
         <v>3.5</v>
@@ -8219,10 +7088,10 @@
     </row>
     <row r="348">
       <c r="A348" s="4" t="s">
-        <v>372</v>
+        <v>17</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C348" s="2" t="n">
         <v>3.5</v>
@@ -8239,10 +7108,10 @@
     </row>
     <row r="349">
       <c r="A349" s="4" t="s">
-        <v>373</v>
+        <v>17</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C349" s="2" t="n">
         <v>3.5</v>
@@ -8259,10 +7128,10 @@
     </row>
     <row r="350">
       <c r="A350" s="4" t="s">
-        <v>374</v>
+        <v>17</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C350" s="2" t="n">
         <v>3.5</v>
@@ -8279,10 +7148,10 @@
     </row>
     <row r="351">
       <c r="A351" s="4" t="s">
-        <v>375</v>
+        <v>18</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C351" s="2" t="n">
         <v>4.0</v>
@@ -8299,10 +7168,10 @@
     </row>
     <row r="352">
       <c r="A352" s="4" t="s">
-        <v>376</v>
+        <v>21</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C352" s="2" t="n">
         <v>3.0</v>
@@ -8319,10 +7188,10 @@
     </row>
     <row r="353">
       <c r="A353" s="4" t="s">
-        <v>377</v>
+        <v>25</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C353" s="2" t="n">
         <v>3.5</v>
@@ -8339,10 +7208,10 @@
     </row>
     <row r="354">
       <c r="A354" s="4" t="s">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C354" s="2" t="n">
         <v>4.0</v>
@@ -8359,10 +7228,10 @@
     </row>
     <row r="355">
       <c r="A355" s="4" t="s">
-        <v>379</v>
+        <v>25</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="C355" s="2" t="n">
         <v>3.5</v>
@@ -8379,7 +7248,7 @@
     </row>
     <row r="356">
       <c r="A356" s="4" t="s">
-        <v>380</v>
+        <v>6</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>7</v>
@@ -8399,10 +7268,10 @@
     </row>
     <row r="357">
       <c r="A357" s="4" t="s">
-        <v>381</v>
+        <v>13</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C357" s="2" t="n">
         <v>3.5</v>
@@ -8419,10 +7288,10 @@
     </row>
     <row r="358">
       <c r="A358" s="4" t="s">
-        <v>382</v>
+        <v>17</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C358" s="2" t="n">
         <v>3.5</v>
@@ -8439,10 +7308,10 @@
     </row>
     <row r="359">
       <c r="A359" s="4" t="s">
-        <v>383</v>
+        <v>26</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C359" s="2" t="n">
         <v>3.5</v>
@@ -8459,10 +7328,10 @@
     </row>
     <row r="360">
       <c r="A360" s="4" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="C360" s="2" t="n">
         <v>4.0</v>
@@ -8479,10 +7348,10 @@
     </row>
     <row r="361">
       <c r="A361" s="4" t="s">
-        <v>385</v>
+        <v>23</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>275</v>
+        <v>7</v>
       </c>
       <c r="C361" s="2" t="n">
         <v>3.5</v>
@@ -8499,10 +7368,10 @@
     </row>
     <row r="362">
       <c r="A362" s="4" t="s">
-        <v>386</v>
+        <v>24</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C362" s="2" t="n">
         <v>4.0</v>
@@ -8519,10 +7388,10 @@
     </row>
     <row r="363">
       <c r="A363" s="4" t="s">
-        <v>387</v>
+        <v>18</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C363" s="2" t="n">
         <v>3.5</v>
@@ -8539,10 +7408,10 @@
     </row>
     <row r="364">
       <c r="A364" s="4" t="s">
-        <v>388</v>
+        <v>10</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C364" s="2" t="n">
         <v>3.5</v>
@@ -8559,10 +7428,10 @@
     </row>
     <row r="365">
       <c r="A365" s="4" t="s">
-        <v>389</v>
+        <v>18</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C365" s="2" t="n">
         <v>3.5</v>
@@ -8579,10 +7448,10 @@
     </row>
     <row r="366">
       <c r="A366" s="4" t="s">
-        <v>390</v>
+        <v>26</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C366" s="2" t="n">
         <v>3.5</v>
@@ -8599,10 +7468,10 @@
     </row>
     <row r="367">
       <c r="A367" s="4" t="s">
-        <v>391</v>
+        <v>26</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C367" s="2" t="n">
         <v>4.0</v>
@@ -8619,10 +7488,10 @@
     </row>
     <row r="368">
       <c r="A368" s="4" t="s">
-        <v>392</v>
+        <v>26</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C368" s="2" t="n">
         <v>3.5</v>
@@ -8639,10 +7508,10 @@
     </row>
     <row r="369">
       <c r="A369" s="4" t="s">
-        <v>393</v>
+        <v>26</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C369" s="2" t="n">
         <v>3.0</v>
@@ -8659,10 +7528,10 @@
     </row>
     <row r="370">
       <c r="A370" s="4" t="s">
-        <v>394</v>
+        <v>19</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="C370" s="2" t="n">
         <v>3.5</v>
@@ -8679,10 +7548,10 @@
     </row>
     <row r="371">
       <c r="A371" s="4" t="s">
-        <v>395</v>
+        <v>19</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="C371" s="2" t="n">
         <v>3.5</v>
@@ -8699,10 +7568,10 @@
     </row>
     <row r="372">
       <c r="A372" s="4" t="s">
-        <v>396</v>
+        <v>21</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C372" s="2" t="n">
         <v>3.5</v>
@@ -8719,10 +7588,10 @@
     </row>
     <row r="373">
       <c r="A373" s="4" t="s">
-        <v>397</v>
+        <v>12</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C373"/>
       <c r="D373" s="2" t="n">
@@ -8737,10 +7606,10 @@
     </row>
     <row r="374">
       <c r="A374" s="4" t="s">
-        <v>398</v>
+        <v>21</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C374" s="2" t="n">
         <v>3.5</v>
@@ -8757,10 +7626,10 @@
     </row>
     <row r="375">
       <c r="A375" s="4" t="s">
-        <v>399</v>
+        <v>24</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="C375"/>
       <c r="D375" s="2" t="n">
@@ -8775,10 +7644,10 @@
     </row>
     <row r="376">
       <c r="A376" s="4" t="s">
-        <v>400</v>
+        <v>21</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C376" s="2" t="n">
         <v>3.0</v>
@@ -8795,10 +7664,10 @@
     </row>
     <row r="377">
       <c r="A377" s="4" t="s">
-        <v>401</v>
+        <v>21</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C377" s="2" t="n">
         <v>3.5</v>
@@ -8815,10 +7684,10 @@
     </row>
     <row r="378">
       <c r="A378" s="4" t="s">
-        <v>402</v>
+        <v>22</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>265</v>
+        <v>7</v>
       </c>
       <c r="C378" s="2" t="n">
         <v>3.0</v>
@@ -8835,10 +7704,10 @@
     </row>
     <row r="379">
       <c r="A379" s="4" t="s">
-        <v>403</v>
+        <v>21</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="C379" s="2" t="n">
         <v>3.5</v>
@@ -8855,7 +7724,7 @@
     </row>
     <row r="380">
       <c r="A380" s="4" t="s">
-        <v>404</v>
+        <v>6</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>7</v>
